--- a/results.xlsx
+++ b/results.xlsx
@@ -296,7 +296,7 @@
   <dimension ref="A1:I36"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E38" activeCellId="0" sqref="E38"/>
+      <selection pane="topLeft" activeCell="E36" activeCellId="0" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.609375" defaultRowHeight="16.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
